--- a/DRL_Automated_Trading/results14/VNA.DE.xlsx
+++ b/DRL_Automated_Trading/results14/VNA.DE.xlsx
@@ -504,7 +504,7 @@
         <v>1000000</v>
       </c>
       <c r="G2" t="n">
-        <v>57.3687685142526</v>
+        <v>57.47518517519986</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -527,22 +527,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>10148.87371491274</v>
+        <v>10150.67292245769</v>
       </c>
       <c r="E3" t="n">
-        <v>17266</v>
+        <v>17234</v>
       </c>
       <c r="F3" t="n">
-        <v>999336.5374017878</v>
+        <v>999336.5384806651</v>
       </c>
       <c r="G3" t="n">
-        <v>57.29107284182064</v>
+        <v>57.39734626657813</v>
       </c>
       <c r="H3" t="n">
-        <v>663.4625982121252</v>
+        <v>663.4615193349244</v>
       </c>
       <c r="I3" t="n">
-        <v>989851.1262850873</v>
+        <v>989849.3270775423</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -559,25 +559,25 @@
         <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>1000684.125704539</v>
+        <v>1000684.101769301</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1000684.125704539</v>
+        <v>1000684.101769301</v>
       </c>
       <c r="G4" t="n">
-        <v>57.40761739504182</v>
+        <v>57.51410570415844</v>
       </c>
       <c r="H4" t="n">
-        <v>664.6699531656752</v>
+        <v>664.66885862328</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.1257045390084</v>
+        <v>684.1017693009926</v>
       </c>
     </row>
     <row r="5">
@@ -591,22 +591,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>10168.01592860091</v>
+        <v>10165.73106828242</v>
       </c>
       <c r="E5" t="n">
-        <v>17304</v>
+        <v>17272</v>
       </c>
       <c r="F5" t="n">
-        <v>1000020.264355483</v>
+        <v>1000020.239064503</v>
       </c>
       <c r="G5" t="n">
-        <v>57.20366669133622</v>
+        <v>57.30977929575155</v>
       </c>
       <c r="H5" t="n">
-        <v>663.8613490561293</v>
+        <v>663.8627047977326</v>
       </c>
       <c r="I5" t="n">
-        <v>990516.1097759381</v>
+        <v>990518.3707010186</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -623,25 +623,25 @@
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>995325.4452088431</v>
+        <v>995325.3882999328</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>995325.4452088431</v>
+        <v>995325.3882999328</v>
       </c>
       <c r="G6" t="n">
-        <v>56.97057735798681</v>
+        <v>57.07625636241231</v>
       </c>
       <c r="H6" t="n">
-        <v>661.4413223615624</v>
+        <v>661.4426599349513</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-5358.680495695909</v>
+        <v>-5358.713469368173</v>
       </c>
     </row>
     <row r="7">
@@ -655,22 +655,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>10062.14996807859</v>
+        <v>10068.66301005304</v>
       </c>
       <c r="E7" t="n">
-        <v>17221</v>
+        <v>17189</v>
       </c>
       <c r="F7" t="n">
-        <v>994664.7336586288</v>
+        <v>994664.6806893252</v>
       </c>
       <c r="G7" t="n">
-        <v>57.17453014868766</v>
+        <v>57.2805874500711</v>
       </c>
       <c r="H7" t="n">
-        <v>660.7115502143301</v>
+        <v>660.7076106075633</v>
       </c>
       <c r="I7" t="n">
-        <v>985263.2952407645</v>
+        <v>985256.7252898798</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -687,22 +687,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10062.14996807859</v>
+        <v>10068.66301005304</v>
       </c>
       <c r="E8" t="n">
-        <v>17221</v>
+        <v>17189</v>
       </c>
       <c r="F8" t="n">
-        <v>990650.6981293611</v>
+        <v>990650.6790582441</v>
       </c>
       <c r="G8" t="n">
-        <v>56.94144057611535</v>
+        <v>57.04706591705109</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>985263.2952407645</v>
+        <v>985256.7252898798</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>88.08573296913701</v>
+        <v>76.17083613247506</v>
       </c>
       <c r="E9" t="n">
-        <v>17394</v>
+        <v>17362</v>
       </c>
       <c r="F9" t="n">
-        <v>998298.3099192311</v>
+        <v>998298.2619953605</v>
       </c>
       <c r="G9" t="n">
-        <v>57.38819272083833</v>
+        <v>57.49464872475683</v>
       </c>
       <c r="H9" t="n">
-        <v>45.90689440442302</v>
+        <v>45.91794453762977</v>
       </c>
       <c r="I9" t="n">
-        <v>995237.359475874</v>
+        <v>995249.2174638005</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -751,22 +751,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>88.08573296913701</v>
+        <v>76.17083613247506</v>
       </c>
       <c r="E10" t="n">
-        <v>17394</v>
+        <v>17362</v>
       </c>
       <c r="F10" t="n">
-        <v>1006238.031047281</v>
+        <v>1006238.033645914</v>
       </c>
       <c r="G10" t="n">
-        <v>57.84465593390317</v>
+        <v>57.95195615768816</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>995237.359475874</v>
+        <v>995249.2174638005</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>88.08573296913701</v>
+        <v>76.17083613247506</v>
       </c>
       <c r="E11" t="n">
-        <v>17394</v>
+        <v>17362</v>
       </c>
       <c r="F11" t="n">
-        <v>1003366.215646237</v>
+        <v>1003366.222069965</v>
       </c>
       <c r="G11" t="n">
-        <v>57.67955213943129</v>
+        <v>57.78654827979683</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>995237.359475874</v>
+        <v>995249.2174638005</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -815,22 +815,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>17.8314925686924</v>
+        <v>5.810521280901135</v>
       </c>
       <c r="E12" t="n">
-        <v>17395</v>
+        <v>17363</v>
       </c>
       <c r="F12" t="n">
-        <v>994737.6932583026</v>
+        <v>994737.5472891589</v>
       </c>
       <c r="G12" t="n">
-        <v>57.18424040044461</v>
+        <v>57.29031485157392</v>
       </c>
       <c r="H12" t="n">
         <v>13.07</v>
       </c>
       <c r="I12" t="n">
-        <v>995307.6137162744</v>
+        <v>995319.5777786521</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.8314925686924</v>
+        <v>5.810521280901135</v>
       </c>
       <c r="E13" t="n">
-        <v>17395</v>
+        <v>17363</v>
       </c>
       <c r="F13" t="n">
-        <v>990852.0826750849</v>
+        <v>990851.9062917769</v>
       </c>
       <c r="G13" t="n">
-        <v>56.96086525912712</v>
+        <v>57.06652627832149</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>995307.6137162744</v>
+        <v>995319.5777786521</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -879,22 +879,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>17.8314925686924</v>
+        <v>5.810521280901135</v>
       </c>
       <c r="E14" t="n">
-        <v>17395</v>
+        <v>17363</v>
       </c>
       <c r="F14" t="n">
-        <v>991021.0266761391</v>
+        <v>991020.8299180411</v>
       </c>
       <c r="G14" t="n">
-        <v>56.97057747534178</v>
+        <v>57.07625522068538</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>995307.6137162744</v>
+        <v>995319.5777786521</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -911,25 +911,25 @@
         <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="G15" t="n">
-        <v>56.79576123030519</v>
+        <v>56.90111727400851</v>
       </c>
       <c r="H15" t="n">
-        <v>662.7273599606953</v>
+        <v>662.7344595371659</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-8008.074475076282</v>
+        <v>-8008.213009579573</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="G16" t="n">
-        <v>56.00909079437123</v>
+        <v>56.11298692948966</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="G17" t="n">
-        <v>55.30982786661708</v>
+        <v>55.4124260719575</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="G18" t="n">
-        <v>55.14472407871034</v>
+        <v>55.2470143736824</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,16 +1039,16 @@
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="G19" t="n">
-        <v>54.60084741522859</v>
+        <v>54.70213234644841</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>987317.3707337668</v>
+        <v>987317.1752903534</v>
       </c>
       <c r="G20" t="n">
-        <v>54.21236986292979</v>
+        <v>54.31293333060478</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>9996.564829528435</v>
+        <v>9984.985025407304</v>
       </c>
       <c r="E21" t="n">
-        <v>18479</v>
+        <v>18445</v>
       </c>
       <c r="F21" t="n">
-        <v>986661.4218195728</v>
+        <v>986661.2195496388</v>
       </c>
       <c r="G21" t="n">
-        <v>52.85268991774686</v>
+        <v>52.95073106664307</v>
       </c>
       <c r="H21" t="n">
-        <v>655.9489141940267</v>
+        <v>655.9557407145389</v>
       </c>
       <c r="I21" t="n">
-        <v>977320.8059042384</v>
+        <v>977332.1902649461</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="G22" t="n">
-        <v>53.1149135962947</v>
+        <v>53.21344142365421</v>
       </c>
       <c r="H22" t="n">
-        <v>658.856293007558</v>
+        <v>658.8631562355812</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3530.826148683787</v>
+        <v>3530.873638120247</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="G23" t="n">
-        <v>53.17318529102272</v>
+        <v>53.27182169331086</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1199,16 +1199,16 @@
         <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="G24" t="n">
-        <v>54.1540966614579</v>
+        <v>54.25455165022458</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="G25" t="n">
-        <v>54.40661215591791</v>
+        <v>54.50753249011701</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="G26" t="n">
-        <v>56.09649737165608</v>
+        <v>56.20055361756098</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1295,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="G27" t="n">
-        <v>57.66984003782819</v>
+        <v>57.77681649040338</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1327,16 +1327,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>990848.1968824506</v>
+        <v>990848.0489284736</v>
       </c>
       <c r="G28" t="n">
-        <v>57.38819295273353</v>
+        <v>57.49464775103127</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1359,22 +1359,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>10028.89404314251</v>
+        <v>10054.48057538674</v>
       </c>
       <c r="E29" t="n">
-        <v>17042</v>
+        <v>17010</v>
       </c>
       <c r="F29" t="n">
-        <v>990190.1501287993</v>
+        <v>990190.0176062551</v>
       </c>
       <c r="G29" t="n">
-        <v>57.51444995221551</v>
+        <v>57.62113680369596</v>
       </c>
       <c r="H29" t="n">
-        <v>658.0467536513941</v>
+        <v>658.031322218521</v>
       </c>
       <c r="I29" t="n">
-        <v>980819.302839308</v>
+        <v>980793.5683530868</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1391,22 +1391,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>10028.89404314251</v>
+        <v>10054.48057538674</v>
       </c>
       <c r="E30" t="n">
-        <v>17042</v>
+        <v>17010</v>
       </c>
       <c r="F30" t="n">
-        <v>939212.4499154121</v>
+        <v>939213.6659576916</v>
       </c>
       <c r="G30" t="n">
-        <v>54.5231519699724</v>
+        <v>54.62429073382157</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>980819.302839308</v>
+        <v>980793.5683530868</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1423,25 +1423,25 @@
         <v>-1</v>
       </c>
       <c r="D31" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="G31" t="n">
-        <v>55.10587584061883</v>
+        <v>55.20809673884287</v>
       </c>
       <c r="H31" t="n">
-        <v>633.4186016454958</v>
+        <v>633.4038353166303</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-42338.38536512747</v>
+        <v>-42337.24666068633</v>
       </c>
     </row>
     <row r="32">
@@ -1455,16 +1455,16 @@
         <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="G32" t="n">
-        <v>56.18390691744735</v>
+        <v>56.28812642511356</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1487,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="G33" t="n">
-        <v>55.74686628403521</v>
+        <v>55.85027467807603</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1519,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>948509.8115173231</v>
+        <v>948510.8022677873</v>
       </c>
       <c r="G34" t="n">
-        <v>54.94076814873561</v>
+        <v>55.04268331430843</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1551,22 +1551,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>9588.035432258604</v>
+        <v>9629.314609384104</v>
       </c>
       <c r="E35" t="n">
-        <v>17420</v>
+        <v>17387</v>
       </c>
       <c r="F35" t="n">
-        <v>947876.8882056591</v>
+        <v>947877.903114684</v>
       </c>
       <c r="G35" t="n">
-        <v>53.86273552086111</v>
+        <v>53.96264959482947</v>
       </c>
       <c r="H35" t="n">
-        <v>632.9233116640404</v>
+        <v>632.89915310318</v>
       </c>
       <c r="I35" t="n">
-        <v>938921.7760850645</v>
+        <v>938881.4876584032</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1583,22 +1583,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>9588.035432258604</v>
+        <v>9629.314609384104</v>
       </c>
       <c r="E36" t="n">
-        <v>17420</v>
+        <v>17387</v>
       </c>
       <c r="F36" t="n">
-        <v>964118.5220071106</v>
+        <v>964118.828520683</v>
       </c>
       <c r="G36" t="n">
-        <v>54.79509107777566</v>
+        <v>54.8967339915626</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>938921.7760850645</v>
+        <v>938881.4876584032</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1615,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9588.035432258604</v>
+        <v>9629.314609384104</v>
       </c>
       <c r="E37" t="n">
-        <v>17420</v>
+        <v>17387</v>
       </c>
       <c r="F37" t="n">
-        <v>989495.9614095769</v>
+        <v>989495.1544661981</v>
       </c>
       <c r="G37" t="n">
-        <v>56.25189012498957</v>
+        <v>56.35623395967183</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>938921.7760850645</v>
+        <v>938881.4876584032</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1647,22 +1647,22 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>67.08407203178777</v>
+        <v>90.7764145017499</v>
       </c>
       <c r="E38" t="n">
-        <v>17590</v>
+        <v>17557</v>
       </c>
       <c r="F38" t="n">
-        <v>980483.6219515965</v>
+        <v>980483.2052956994</v>
       </c>
       <c r="G38" t="n">
-        <v>55.73715394426178</v>
+        <v>55.840543878863</v>
       </c>
       <c r="H38" t="n">
-        <v>45.6351897023147</v>
+        <v>45.64573547564403</v>
       </c>
       <c r="I38" t="n">
-        <v>948442.7274452914</v>
+        <v>948420.0258532856</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1679,22 +1679,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>67.08407203178777</v>
+        <v>22.31345042017148</v>
       </c>
       <c r="E39" t="n">
-        <v>17590</v>
+        <v>17558</v>
       </c>
       <c r="F39" t="n">
-        <v>972625.2892313657</v>
+        <v>972611.9767947741</v>
       </c>
       <c r="G39" t="n">
-        <v>55.29040393174155</v>
+        <v>55.39296408157842</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I39" t="n">
-        <v>948442.7274452914</v>
+        <v>948488.4888173671</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>44159</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>67.08407203178777</v>
+        <v>949591.8999164047</v>
       </c>
       <c r="E40" t="n">
-        <v>17590</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>950245.9559688218</v>
+        <v>949591.8999164047</v>
       </c>
       <c r="G40" t="n">
-        <v>54.01812802142069</v>
+        <v>54.11833137392315</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>640.0757973580056</v>
       </c>
       <c r="I40" t="n">
-        <v>948442.7274452914</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1081.097648617462</v>
       </c>
     </row>
     <row r="41">
@@ -1743,25 +1743,25 @@
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>945508.3958265543</v>
+        <v>949591.8999164047</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>945508.3958265543</v>
+        <v>949591.8999164047</v>
       </c>
       <c r="G41" t="n">
-        <v>53.78504315520082</v>
+        <v>53.88481304467852</v>
       </c>
       <c r="H41" t="n">
-        <v>637.5973454599896</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-3001.415690768859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1775,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>945508.3958265543</v>
+        <v>949591.8999164047</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>945508.3958265543</v>
+        <v>949591.8999164047</v>
       </c>
       <c r="G42" t="n">
-        <v>55.11558741346813</v>
+        <v>55.21782237561916</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>9563.329199994931</v>
+        <v>9648.735825657959</v>
       </c>
       <c r="E43" t="n">
-        <v>16994</v>
+        <v>17035</v>
       </c>
       <c r="F43" t="n">
-        <v>944877.2574695925</v>
+        <v>948958.3641394165</v>
       </c>
       <c r="G43" t="n">
-        <v>55.0378915069788</v>
+        <v>55.13998405129196</v>
       </c>
       <c r="H43" t="n">
-        <v>631.1383569617585</v>
+        <v>633.5357769882552</v>
       </c>
       <c r="I43" t="n">
-        <v>935945.0666265594</v>
+        <v>939943.1640907468</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -1839,22 +1839,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>86.98241612765548</v>
+        <v>99.27347607832937</v>
       </c>
       <c r="E44" t="n">
-        <v>17164</v>
+        <v>17206</v>
       </c>
       <c r="F44" t="n">
-        <v>952258.7052547651</v>
+        <v>956371.5305128918</v>
       </c>
       <c r="G44" t="n">
-        <v>55.47493141683974</v>
+        <v>55.57783662889769</v>
       </c>
       <c r="H44" t="n">
-        <v>45.60844300451766</v>
+        <v>45.65228603812491</v>
       </c>
       <c r="I44" t="n">
-        <v>945421.4134104266</v>
+        <v>949492.6264403265</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -1871,22 +1871,22 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>18.48604335141746</v>
+        <v>30.67428846092066</v>
       </c>
       <c r="E45" t="n">
-        <v>17165</v>
+        <v>17207</v>
       </c>
       <c r="F45" t="n">
-        <v>951412.1747474771</v>
+        <v>955521.4056212126</v>
       </c>
       <c r="G45" t="n">
-        <v>55.42637277623802</v>
+        <v>55.52918761740871</v>
       </c>
       <c r="H45" t="n">
         <v>13.07</v>
       </c>
       <c r="I45" t="n">
-        <v>945489.9097832028</v>
+        <v>949561.2256279439</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>18.48604335141746</v>
+        <v>30.67428846092066</v>
       </c>
       <c r="E46" t="n">
-        <v>17165</v>
+        <v>17207</v>
       </c>
       <c r="F46" t="n">
-        <v>942243.3079543731</v>
+        <v>946313.0416221931</v>
       </c>
       <c r="G46" t="n">
-        <v>54.8922121707557</v>
+        <v>54.99403541196793</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>945489.9097832028</v>
+        <v>949561.2256279439</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1935,22 +1935,22 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>18.48604335141746</v>
+        <v>30.67428846092066</v>
       </c>
       <c r="E47" t="n">
-        <v>17165</v>
+        <v>17207</v>
       </c>
       <c r="F47" t="n">
-        <v>936241.8657506879</v>
+        <v>940285.7330500574</v>
       </c>
       <c r="G47" t="n">
-        <v>54.54257965087891</v>
+        <v>54.64375305175781</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>945489.9097832028</v>
+        <v>949561.2256279439</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1967,22 +1967,22 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>18.48604335141746</v>
+        <v>30.67428846092066</v>
       </c>
       <c r="E48" t="n">
-        <v>17165</v>
+        <v>17207</v>
       </c>
       <c r="F48" t="n">
-        <v>928740.0338493772</v>
+        <v>932751.6260175605</v>
       </c>
       <c r="G48" t="n">
-        <v>54.10553730300179</v>
+        <v>54.20590176841399</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>945489.9097832028</v>
+        <v>949561.2256279439</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>18.48604335141746</v>
+        <v>30.67428846092066</v>
       </c>
       <c r="E49" t="n">
-        <v>17165</v>
+        <v>17207</v>
       </c>
       <c r="F49" t="n">
-        <v>931740.7840763273</v>
+        <v>935765.2463370267</v>
       </c>
       <c r="G49" t="n">
-        <v>54.28035525971313</v>
+        <v>54.38104097452001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>945489.9097832028</v>
+        <v>949561.2256279439</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2031,22 +2031,22 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>18.48604335141746</v>
+        <v>30.67428846092066</v>
       </c>
       <c r="E50" t="n">
-        <v>17165</v>
+        <v>17207</v>
       </c>
       <c r="F50" t="n">
-        <v>938909.1937017997</v>
+        <v>942964.5245637483</v>
       </c>
       <c r="G50" t="n">
-        <v>54.69797306486736</v>
+        <v>54.79943338613863</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>945489.9097832028</v>
+        <v>949561.2256279439</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2063,25 +2063,25 @@
         <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>938942.2591125952</v>
+        <v>942998.115825097</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>938942.2591125952</v>
+        <v>942998.115825097</v>
       </c>
       <c r="G51" t="n">
-        <v>54.73681663523274</v>
+        <v>54.83835379025033</v>
       </c>
       <c r="H51" t="n">
-        <v>633.684474526262</v>
+        <v>636.1121322013025</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-6566.136713959044</v>
+        <v>-6593.784091307782</v>
       </c>
     </row>
     <row r="52">
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>938942.2591125952</v>
+        <v>942998.115825097</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>938942.2591125952</v>
+        <v>942998.115825097</v>
       </c>
       <c r="G52" t="n">
-        <v>54.92134647353652</v>
+        <v>55.0232223669443</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2127,22 +2127,22 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>9507.155469767793</v>
+        <v>9573.763244950198</v>
       </c>
       <c r="E53" t="n">
-        <v>16852</v>
+        <v>16893</v>
       </c>
       <c r="F53" t="n">
-        <v>938315.0243912423</v>
+        <v>942368.4889896502</v>
       </c>
       <c r="G53" t="n">
-        <v>55.1155868099617</v>
+        <v>55.21782547473509</v>
       </c>
       <c r="H53" t="n">
-        <v>627.2347213528848</v>
+        <v>629.62683544682</v>
       </c>
       <c r="I53" t="n">
-        <v>929435.1036428275</v>
+        <v>933424.3525801467</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>9507.155469767793</v>
+        <v>9573.763244950198</v>
       </c>
       <c r="E54" t="n">
-        <v>16852</v>
+        <v>16893</v>
       </c>
       <c r="F54" t="n">
-        <v>946334.6792338261</v>
+        <v>950422.5597110252</v>
       </c>
       <c r="G54" t="n">
-        <v>55.59147423237944</v>
+        <v>55.69459518534748</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>929435.1036428275</v>
+        <v>933424.3525801467</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2191,22 +2191,22 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>9507.155469767793</v>
+        <v>9573.763244950198</v>
       </c>
       <c r="E55" t="n">
-        <v>16852</v>
+        <v>16893</v>
       </c>
       <c r="F55" t="n">
-        <v>951081.0292216208</v>
+        <v>955189.2623756013</v>
       </c>
       <c r="G55" t="n">
-        <v>55.873123294081</v>
+        <v>55.97676547271953</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>929435.1036428275</v>
+        <v>933424.3525801467</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2223,22 +2223,22 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>69.12635307767373</v>
+        <v>61.92075033049389</v>
       </c>
       <c r="E56" t="n">
-        <v>17019</v>
+        <v>17061</v>
       </c>
       <c r="F56" t="n">
-        <v>957254.7460408407</v>
+        <v>961389.6351378099</v>
       </c>
       <c r="G56" t="n">
-        <v>56.24217754790311</v>
+        <v>56.34650456523529</v>
       </c>
       <c r="H56" t="n">
-        <v>45.5854661902999</v>
+        <v>45.62972766017572</v>
       </c>
       <c r="I56" t="n">
-        <v>938873.1327595176</v>
+        <v>942936.1950747664</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>69.12635307767373</v>
+        <v>61.92075033049389</v>
       </c>
       <c r="E57" t="n">
-        <v>17019</v>
+        <v>17061</v>
       </c>
       <c r="F57" t="n">
-        <v>968329.0738148168</v>
+        <v>972511.8851335272</v>
       </c>
       <c r="G57" t="n">
-        <v>56.8928813362559</v>
+        <v>56.99841535567649</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>938873.1327595176</v>
+        <v>942936.1950747664</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>69.12635307767373</v>
+        <v>61.92075033049389</v>
       </c>
       <c r="E58" t="n">
-        <v>17019</v>
+        <v>17061</v>
       </c>
       <c r="F58" t="n">
-        <v>966841.4768469719</v>
+        <v>971017.8725314639</v>
       </c>
       <c r="G58" t="n">
-        <v>56.80547332357331</v>
+        <v>56.91084647917081</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>938873.1327595176</v>
+        <v>942936.1950747664</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2319,22 +2319,22 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>69.12635307767373</v>
+        <v>61.92075033049389</v>
       </c>
       <c r="E59" t="n">
-        <v>17019</v>
+        <v>17061</v>
       </c>
       <c r="F59" t="n">
-        <v>950312.6426832282</v>
+        <v>954417.5083253963</v>
       </c>
       <c r="G59" t="n">
-        <v>55.83427441859983</v>
+        <v>55.93784582234721</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>938873.1327595176</v>
+        <v>942936.1950747664</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2351,22 +2351,22 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02783833410835257</v>
+        <v>61.92075033049389</v>
       </c>
       <c r="E60" t="n">
-        <v>17020</v>
+        <v>17061</v>
       </c>
       <c r="F60" t="n">
-        <v>953605.3487738167</v>
+        <v>957737.5592733561</v>
       </c>
       <c r="G60" t="n">
-        <v>56.02851474356537</v>
+        <v>56.13244467047802</v>
       </c>
       <c r="H60" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>938942.2312742613</v>
+        <v>942936.1950747664</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2383,25 +2383,25 @@
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>961223.1804256524</v>
+        <v>965388.2326378296</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>961223.1804256524</v>
+        <v>965388.2326378296</v>
       </c>
       <c r="G61" t="n">
-        <v>56.51411426099598</v>
+        <v>56.6189465679583</v>
       </c>
       <c r="H61" t="n">
-        <v>647.072134833291</v>
+        <v>649.535508437562</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>22280.92131305707</v>
+        <v>22390.11681273265</v>
       </c>
     </row>
     <row r="62">
@@ -2415,16 +2415,16 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>961223.1804256524</v>
+        <v>965388.2326378296</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>961223.1804256524</v>
+        <v>965388.2326378296</v>
       </c>
       <c r="G62" t="n">
-        <v>57.05798501061261</v>
+        <v>57.1638252083269</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>9762.454940839187</v>
+        <v>9786.025267436478</v>
       </c>
       <c r="E63" t="n">
-        <v>16443</v>
+        <v>16484</v>
       </c>
       <c r="F63" t="n">
-        <v>960582.7382556635</v>
+        <v>964745.3070687489</v>
       </c>
       <c r="G63" t="n">
-        <v>57.82523160705615</v>
+        <v>57.93249707603205</v>
       </c>
       <c r="H63" t="n">
-        <v>640.4421699888946</v>
+        <v>642.9255690807875</v>
       </c>
       <c r="I63" t="n">
-        <v>951460.7254848132</v>
+        <v>955602.2073703931</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="G64" t="n">
-        <v>57.89321691566929</v>
+        <v>58.0006088842648</v>
       </c>
       <c r="H64" t="n">
-        <v>641.1128994466101</v>
+        <v>643.5992221089326</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-163.6726399097824</v>
+        <v>-163.769744281075</v>
       </c>
     </row>
     <row r="65">
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="G65" t="n">
-        <v>57.9903376083589</v>
+        <v>58.09790938184896</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2543,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="G66" t="n">
-        <v>57.66012931548298</v>
+        <v>57.76708766131905</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2575,16 +2575,16 @@
         <v>-1</v>
       </c>
       <c r="D67" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="G67" t="n">
-        <v>56.64037026505427</v>
+        <v>56.74543479746433</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2607,16 +2607,16 @@
         <v>-1</v>
       </c>
       <c r="D68" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>961059.5077857426</v>
+        <v>965224.4628935485</v>
       </c>
       <c r="G68" t="n">
-        <v>55.39723599287807</v>
+        <v>55.49999463357918</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2639,22 +2639,22 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>9755.991946065604</v>
+        <v>9801.132732068587</v>
       </c>
       <c r="E69" t="n">
-        <v>16994</v>
+        <v>17036</v>
       </c>
       <c r="F69" t="n">
-        <v>960419.1598849792</v>
+        <v>964581.6445864359</v>
       </c>
       <c r="G69" t="n">
-        <v>55.94110673996197</v>
+        <v>56.04487625348482</v>
       </c>
       <c r="H69" t="n">
-        <v>640.3479007633483</v>
+        <v>642.8183071126205</v>
       </c>
       <c r="I69" t="n">
-        <v>951303.5158396771</v>
+        <v>955423.33016148</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -2671,22 +2671,22 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>111.1380279627178</v>
+        <v>82.18892578759483</v>
       </c>
       <c r="E70" t="n">
-        <v>17165</v>
+        <v>17208</v>
       </c>
       <c r="F70" t="n">
-        <v>963674.3787632645</v>
+        <v>967851.0939692924</v>
       </c>
       <c r="G70" t="n">
-        <v>56.13534755230421</v>
+        <v>56.23947611828828</v>
       </c>
       <c r="H70" t="n">
-        <v>45.70948665886642</v>
+        <v>45.75391393540735</v>
       </c>
       <c r="I70" t="n">
-        <v>960948.36975778</v>
+        <v>965142.273967761</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -2703,22 +2703,22 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>111.1380279627178</v>
+        <v>82.18892578759483</v>
       </c>
       <c r="E71" t="n">
-        <v>17165</v>
+        <v>17208</v>
       </c>
       <c r="F71" t="n">
-        <v>948670.7906190061</v>
+        <v>952782.0155657225</v>
       </c>
       <c r="G71" t="n">
-        <v>55.26126726426119</v>
+        <v>55.36377421199064</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>960948.36975778</v>
+        <v>965142.273967761</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -2735,22 +2735,22 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>111.1380279627178</v>
+        <v>82.18892578759483</v>
       </c>
       <c r="E72" t="n">
-        <v>17165</v>
+        <v>17208</v>
       </c>
       <c r="F72" t="n">
-        <v>948504.0995062807</v>
+        <v>952614.6310397171</v>
       </c>
       <c r="G72" t="n">
-        <v>55.25155615952916</v>
+        <v>55.35404707775044</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>960948.36975778</v>
+        <v>965142.273967761</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="G73" t="n">
-        <v>55.1544360588955</v>
+        <v>55.25674306868022</v>
       </c>
       <c r="H73" t="n">
-        <v>637.9855369705648</v>
+        <v>640.4648208355096</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-14860.46034380933</v>
+        <v>-14924.7040627473</v>
       </c>
     </row>
     <row r="74">
@@ -2799,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="G74" t="n">
-        <v>54.4066085828645</v>
+        <v>54.50753149776347</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2831,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="G75" t="n">
-        <v>54.2803515814407</v>
+        <v>54.38104070744572</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -2863,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>946199.0474419334</v>
+        <v>950299.7588308012</v>
       </c>
       <c r="G76" t="n">
-        <v>54.42603128324126</v>
+        <v>54.52699238145451</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -2895,22 +2895,22 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>9565.018017428405</v>
+        <v>9652.010884014799</v>
       </c>
       <c r="E77" t="n">
-        <v>17312</v>
+        <v>17354</v>
       </c>
       <c r="F77" t="n">
-        <v>945567.4959551708</v>
+        <v>949665.8005569974</v>
       </c>
       <c r="G77" t="n">
-        <v>54.06668657218937</v>
+        <v>54.16698108061442</v>
       </c>
       <c r="H77" t="n">
-        <v>631.5514867626455</v>
+        <v>633.9582738037897</v>
       </c>
       <c r="I77" t="n">
-        <v>936634.029424505</v>
+        <v>940647.7479467865</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2927,22 +2927,22 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>9565.018017428405</v>
+        <v>9652.010884014799</v>
       </c>
       <c r="E78" t="n">
-        <v>17312</v>
+        <v>17354</v>
       </c>
       <c r="F78" t="n">
-        <v>944222.4644688488</v>
+        <v>948314.9921876582</v>
       </c>
       <c r="G78" t="n">
-        <v>53.98899297894064</v>
+        <v>54.08914263591353</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>936634.029424505</v>
+        <v>940647.7479467865</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -2959,25 +2959,25 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>932669.5693149304</v>
+        <v>936712.8644870222</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>932669.5693149304</v>
+        <v>936712.8644870222</v>
       </c>
       <c r="G79" t="n">
-        <v>53.35771364028571</v>
+        <v>53.45669102527596</v>
       </c>
       <c r="H79" t="n">
-        <v>624.1872431243758</v>
+        <v>626.5624496315835</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-13529.47812700307</v>
+        <v>-13586.89434377907</v>
       </c>
     </row>
     <row r="80">
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>932669.5693149304</v>
+        <v>936712.8644870222</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>932669.5693149304</v>
+        <v>936712.8644870222</v>
       </c>
       <c r="G80" t="n">
-        <v>53.74619259003933</v>
+        <v>53.84589130298708</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>9468.160753981629</v>
+        <v>9517.755208810593</v>
       </c>
       <c r="E81" t="n">
-        <v>17027</v>
+        <v>17069</v>
       </c>
       <c r="F81" t="n">
-        <v>932046.0725678421</v>
+        <v>936086.9729563736</v>
       </c>
       <c r="G81" t="n">
-        <v>54.18323320689848</v>
+        <v>54.28374349684006</v>
       </c>
       <c r="H81" t="n">
-        <v>623.4967470883163</v>
+        <v>625.8915306485379</v>
       </c>
       <c r="I81" t="n">
-        <v>923201.4085609487</v>
+        <v>927195.1092782116</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3055,22 +3055,22 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>9468.160753981629</v>
+        <v>9517.755208810593</v>
       </c>
       <c r="E82" t="n">
-        <v>17027</v>
+        <v>17069</v>
       </c>
       <c r="F82" t="n">
-        <v>926092.8878670197</v>
+        <v>930108.0349945428</v>
       </c>
       <c r="G82" t="n">
-        <v>53.83360116949774</v>
+        <v>53.93346299055201</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>923201.4085609487</v>
+        <v>927195.1092782116</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3087,22 +3087,22 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>9468.160753981629</v>
+        <v>9517.755208810593</v>
       </c>
       <c r="E83" t="n">
-        <v>17027</v>
+        <v>17069</v>
       </c>
       <c r="F83" t="n">
-        <v>921793.361566387</v>
+        <v>925789.8860583997</v>
       </c>
       <c r="G83" t="n">
-        <v>53.58108890658397</v>
+        <v>53.6804810387011</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>923201.4085609487</v>
+        <v>927195.1092782116</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3119,22 +3119,22 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>103.7152425489409</v>
+        <v>82.63114662123006</v>
       </c>
       <c r="E84" t="n">
-        <v>17202</v>
+        <v>17245</v>
       </c>
       <c r="F84" t="n">
-        <v>916125.369608016</v>
+        <v>920097.5352862712</v>
       </c>
       <c r="G84" t="n">
-        <v>53.25088096532188</v>
+        <v>53.34966101128733</v>
       </c>
       <c r="H84" t="n">
-        <v>45.5413425013588</v>
+        <v>45.58372420279194</v>
       </c>
       <c r="I84" t="n">
-        <v>932565.8540723814</v>
+        <v>936630.233340401</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3151,22 +3151,22 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>36.28718977197644</v>
+        <v>15.10226277936216</v>
       </c>
       <c r="E85" t="n">
-        <v>17203</v>
+        <v>17246</v>
       </c>
       <c r="F85" t="n">
-        <v>935157.8691118915</v>
+        <v>939213.0129996332</v>
       </c>
       <c r="G85" t="n">
-        <v>54.35805277696446</v>
+        <v>54.4588838418679</v>
       </c>
       <c r="H85" t="n">
         <v>13.07</v>
       </c>
       <c r="I85" t="n">
-        <v>932633.2821251584</v>
+        <v>936697.7622242428</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3183,25 +3183,25 @@
         <v>-1</v>
       </c>
       <c r="D86" t="n">
-        <v>947550.8913312196</v>
+        <v>951660.377157032</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>947550.8913312196</v>
+        <v>951660.377157032</v>
       </c>
       <c r="G86" t="n">
-        <v>55.11558717718846</v>
+        <v>55.21782424054065</v>
       </c>
       <c r="H86" t="n">
-        <v>638.8420677255039</v>
+        <v>641.3219581114184</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>14881.32201628922</v>
+        <v>14947.51267000986</v>
       </c>
     </row>
     <row r="87">
@@ -3215,22 +3215,22 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>9625.606138577354</v>
+        <v>9672.006581924999</v>
       </c>
       <c r="E87" t="n">
-        <v>16985</v>
+        <v>17027</v>
       </c>
       <c r="F87" t="n">
-        <v>946918.5655555694</v>
+        <v>951025.614991986</v>
       </c>
       <c r="G87" t="n">
-        <v>55.18357135219264</v>
+        <v>55.28593459858231</v>
       </c>
       <c r="H87" t="n">
-        <v>632.3257756501953</v>
+        <v>634.7621650460367</v>
       </c>
       <c r="I87" t="n">
-        <v>937925.2851926422</v>
+        <v>941988.3705751071</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3247,22 +3247,22 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>9625.606138577354</v>
+        <v>9672.006581924999</v>
       </c>
       <c r="E88" t="n">
-        <v>16985</v>
+        <v>17027</v>
       </c>
       <c r="F88" t="n">
-        <v>938010.7717637348</v>
+        <v>942079.2452612587</v>
       </c>
       <c r="G88" t="n">
-        <v>54.65912073153709</v>
+        <v>54.76051205023396</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>937925.2851926422</v>
+        <v>941988.3705751071</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3279,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>109.805311179652</v>
+        <v>84.38018238802283</v>
       </c>
       <c r="E89" t="n">
-        <v>17160</v>
+        <v>17203</v>
       </c>
       <c r="F89" t="n">
-        <v>928727.4929736939</v>
+        <v>932755.8971655766</v>
       </c>
       <c r="G89" t="n">
-        <v>54.11524986378289</v>
+        <v>54.21563198181646</v>
       </c>
       <c r="H89" t="n">
-        <v>45.63210123569721</v>
+        <v>45.67517073727982</v>
       </c>
       <c r="I89" t="n">
-        <v>947441.08602004</v>
+        <v>951575.996974644</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>109.805311179652</v>
+        <v>17.73673080841601</v>
       </c>
       <c r="E90" t="n">
-        <v>17160</v>
+        <v>17204</v>
       </c>
       <c r="F90" t="n">
-        <v>917728.0500954904</v>
+        <v>921695.3977063642</v>
       </c>
       <c r="G90" t="n">
-        <v>53.4742566890624</v>
+        <v>53.57345157960683</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I90" t="n">
-        <v>947441.08602004</v>
+        <v>951642.6404262236</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3343,22 +3343,22 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>109.805311179652</v>
+        <v>17.73673080841601</v>
       </c>
       <c r="E91" t="n">
-        <v>17160</v>
+        <v>17204</v>
       </c>
       <c r="F91" t="n">
-        <v>914228.2499640343</v>
+        <v>918180.0928372575</v>
       </c>
       <c r="G91" t="n">
-        <v>53.27030563245074</v>
+        <v>53.36912090830325</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>947441.08602004</v>
+        <v>951642.6404262236</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>911944.2438269368</v>
+        <v>915886.3362287525</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>911944.2438269368</v>
+        <v>915886.3362287525</v>
       </c>
       <c r="G92" t="n">
-        <v>53.17318529321307</v>
+        <v>53.27182298090457</v>
       </c>
       <c r="H92" t="n">
-        <v>617.4211157789217</v>
+        <v>619.8430655380894</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-35606.64750428277</v>
+        <v>-35774.04092827952</v>
       </c>
     </row>
     <row r="93">
@@ -3407,22 +3407,22 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>9239.575164794005</v>
+        <v>9267.681064500335</v>
       </c>
       <c r="E93" t="n">
-        <v>16959</v>
+        <v>17001</v>
       </c>
       <c r="F93" t="n">
-        <v>911333.037749386</v>
+        <v>915272.7831674907</v>
       </c>
       <c r="G93" t="n">
-        <v>53.19260938643741</v>
+        <v>53.29128298941182</v>
       </c>
       <c r="H93" t="n">
-        <v>611.2060775507553</v>
+        <v>613.5530612617943</v>
       </c>
       <c r="I93" t="n">
-        <v>902704.6686621428</v>
+        <v>906618.6551642522</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -3439,22 +3439,22 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>96.93892121961277</v>
+        <v>54.51507601905434</v>
       </c>
       <c r="E94" t="n">
-        <v>17129</v>
+        <v>17172</v>
       </c>
       <c r="F94" t="n">
-        <v>916722.9201923732</v>
+        <v>920686.1416801768</v>
       </c>
       <c r="G94" t="n">
-        <v>53.51310533429584</v>
+        <v>53.61237052202176</v>
       </c>
       <c r="H94" t="n">
-        <v>45.40833674409818</v>
+        <v>45.45062921555944</v>
       </c>
       <c r="I94" t="n">
-        <v>911847.3049057173</v>
+        <v>915831.8211527334</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>96.93892121961277</v>
+        <v>54.51507601905434</v>
       </c>
       <c r="E95" t="n">
-        <v>17129</v>
+        <v>17172</v>
       </c>
       <c r="F95" t="n">
-        <v>914393.9053540672</v>
+        <v>918346.9567025879</v>
       </c>
       <c r="G95" t="n">
-        <v>53.37713622703296</v>
+        <v>53.47614964049434</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>911847.3049057173</v>
+        <v>915831.8211527334</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>912279.0994445905</v>
+        <v>916223.2528921391</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>912279.0994445905</v>
+        <v>916223.2528921391</v>
       </c>
       <c r="G96" t="n">
-        <v>53.28973030519057</v>
+        <v>53.38858380344536</v>
       </c>
       <c r="H96" t="n">
-        <v>617.6298742385657</v>
+        <v>620.0232566436582</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>334.8556176535785</v>
+        <v>336.9166633866262</v>
       </c>
     </row>
     <row r="97">
@@ -3535,16 +3535,16 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>912279.0994445905</v>
+        <v>916223.2528921391</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>912279.0994445905</v>
+        <v>916223.2528921391</v>
       </c>
       <c r="G97" t="n">
-        <v>52.52248185889732</v>
+        <v>52.61991217223954</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3567,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9246.287113382361</v>
+        <v>9258.982960116282</v>
       </c>
       <c r="E98" t="n">
-        <v>17239</v>
+        <v>17282</v>
       </c>
       <c r="F98" t="n">
-        <v>911667.6965988992</v>
+        <v>915609.4925863633</v>
       </c>
       <c r="G98" t="n">
-        <v>52.34766572803044</v>
+        <v>52.444769680954</v>
       </c>
       <c r="H98" t="n">
-        <v>611.4028456913102</v>
+        <v>613.7603057757483</v>
       </c>
       <c r="I98" t="n">
-        <v>903032.8123312081</v>
+        <v>906964.2699320229</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>56.86938349624441</v>
+        <v>105.2741155875989</v>
       </c>
       <c r="E99" t="n">
-        <v>17413</v>
+        <v>17455</v>
       </c>
       <c r="F99" t="n">
-        <v>915138.174511379</v>
+        <v>919095.2710494975</v>
       </c>
       <c r="G99" t="n">
-        <v>52.55161690276706</v>
+        <v>52.64909750409109</v>
       </c>
       <c r="H99" t="n">
-        <v>45.43638880464889</v>
+        <v>45.41497632092466</v>
       </c>
       <c r="I99" t="n">
-        <v>912222.2300610943</v>
+        <v>916117.9787765516</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3631,25 +3631,25 @@
         <v>-1</v>
       </c>
       <c r="D100" t="n">
-        <v>902012.1795466566</v>
+        <v>905913.5015152469</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>902012.1795466566</v>
+        <v>905913.5015152469</v>
       </c>
       <c r="G100" t="n">
-        <v>51.83292943452055</v>
+        <v>51.92907651779032</v>
       </c>
       <c r="H100" t="n">
-        <v>611.4900801459838</v>
+        <v>613.8032183708182</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-10266.91989793396</v>
+        <v>-10309.75137689221</v>
       </c>
     </row>
     <row r="101">
@@ -3663,16 +3663,16 @@
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>902012.1795466566</v>
+        <v>905913.5015152469</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>902012.1795466566</v>
+        <v>905913.5015152469</v>
       </c>
       <c r="G101" t="n">
-        <v>51.46387446090932</v>
+        <v>51.55933950226998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3695,22 +3695,22 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>9117.248393417438</v>
+        <v>9185.795231225402</v>
       </c>
       <c r="E102" t="n">
-        <v>17260</v>
+        <v>17302</v>
       </c>
       <c r="F102" t="n">
-        <v>901406.8557822233</v>
+        <v>905305.8794647069</v>
       </c>
       <c r="G102" t="n">
-        <v>51.6969645068833</v>
+        <v>51.7928611856133</v>
       </c>
       <c r="H102" t="n">
-        <v>605.3237644332835</v>
+        <v>607.6220505400889</v>
       </c>
       <c r="I102" t="n">
-        <v>892894.9311532391</v>
+        <v>896727.7062840215</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -3727,22 +3727,22 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>92.92649726399668</v>
+        <v>93.37326007105048</v>
       </c>
       <c r="E103" t="n">
-        <v>17435</v>
+        <v>17478</v>
       </c>
       <c r="F103" t="n">
-        <v>894656.3256545424</v>
+        <v>898526.5015185464</v>
       </c>
       <c r="G103" t="n">
-        <v>51.30848288828669</v>
+        <v>51.40365764151936</v>
       </c>
       <c r="H103" t="n">
-        <v>45.3373907032701</v>
+        <v>45.37822624694445</v>
       </c>
       <c r="I103" t="n">
-        <v>901919.2530493925</v>
+        <v>905820.1282551759</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -3759,25 +3759,25 @@
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>903018.6906436622</v>
+        <v>906925.3440689266</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>903018.6906436622</v>
+        <v>906925.3440689266</v>
       </c>
       <c r="G104" t="n">
-        <v>51.8232197790942</v>
+        <v>51.91934939020716</v>
       </c>
       <c r="H104" t="n">
-        <v>612.0727021091045</v>
+        <v>614.4178331852245</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1006.511097005801</v>
+        <v>1011.842553679715</v>
       </c>
     </row>
     <row r="105">
@@ -3791,22 +3791,22 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>9128.184074198209</v>
+        <v>9203.087295509597</v>
       </c>
       <c r="E105" t="n">
-        <v>17302</v>
+        <v>17344</v>
       </c>
       <c r="F105" t="n">
-        <v>902412.7698921715</v>
+        <v>906317.1256459164</v>
       </c>
       <c r="G105" t="n">
-        <v>51.62897848907486</v>
+        <v>51.72474852112585</v>
       </c>
       <c r="H105" t="n">
-        <v>605.9207514907839</v>
+        <v>608.2184230102441</v>
       </c>
       <c r="I105" t="n">
-        <v>893890.506569464</v>
+        <v>897722.256773417</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -3820,28 +3820,28 @@
         <v>44257</v>
       </c>
       <c r="C106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>910875.410971874</v>
+        <v>9203.087295509597</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>17344</v>
       </c>
       <c r="F106" t="n">
-        <v>910875.410971874</v>
+        <v>915430.0157142928</v>
       </c>
       <c r="G106" t="n">
-        <v>52.15342689012297</v>
+        <v>52.2501688433339</v>
       </c>
       <c r="H106" t="n">
-        <v>611.3651552317447</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>897722.256773417</v>
       </c>
       <c r="J106" t="n">
-        <v>7856.720328211784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3852,25 +3852,25 @@
         <v>44258</v>
       </c>
       <c r="C107" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>910875.410971874</v>
+        <v>9203.087295509597</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>17344</v>
       </c>
       <c r="F107" t="n">
-        <v>910875.410971874</v>
+        <v>920999.0414011858</v>
       </c>
       <c r="G107" t="n">
-        <v>52.47392297040645</v>
+        <v>52.57126119151731</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>897722.256773417</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -3887,22 +3887,22 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>9246.238104292672</v>
+        <v>86.48110767139286</v>
       </c>
       <c r="E108" t="n">
-        <v>17315</v>
+        <v>17518</v>
       </c>
       <c r="F108" t="n">
-        <v>910264.8498048537</v>
+        <v>913359.5695451242</v>
       </c>
       <c r="G108" t="n">
-        <v>52.03688199252446</v>
+        <v>52.13341068828935</v>
       </c>
       <c r="H108" t="n">
-        <v>610.5611670203366</v>
+        <v>45.39272807585741</v>
       </c>
       <c r="I108" t="n">
-        <v>901629.1728675814</v>
+        <v>906838.8629612552</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3919,22 +3919,22 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>59.40506906366495</v>
+        <v>21.37499941954693</v>
       </c>
       <c r="E109" t="n">
-        <v>17491</v>
+        <v>17519</v>
       </c>
       <c r="F109" t="n">
-        <v>908537.7905899702</v>
+        <v>911641.9554635084</v>
       </c>
       <c r="G109" t="n">
-        <v>51.93976247904102</v>
+        <v>52.03610825184593</v>
       </c>
       <c r="H109" t="n">
-        <v>45.43483891778673</v>
+        <v>13.07</v>
       </c>
       <c r="I109" t="n">
-        <v>910816.0059028104</v>
+        <v>906903.9690695071</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>59.40506906366495</v>
+        <v>21.37499941954693</v>
       </c>
       <c r="E110" t="n">
-        <v>17491</v>
+        <v>17519</v>
       </c>
       <c r="F110" t="n">
-        <v>913803.8502688942</v>
+        <v>916926.2704866447</v>
       </c>
       <c r="G110" t="n">
-        <v>52.24083501228235</v>
+        <v>52.33774162265113</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>910816.0059028104</v>
+        <v>906903.9690695071</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -3983,22 +3983,22 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>59.40506906366495</v>
+        <v>21.37499941954693</v>
       </c>
       <c r="E111" t="n">
-        <v>17491</v>
+        <v>17519</v>
       </c>
       <c r="F111" t="n">
-        <v>915842.309018894</v>
+        <v>918971.7669930693</v>
       </c>
       <c r="G111" t="n">
-        <v>52.35737830597623</v>
+        <v>52.45450037066327</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>910816.0059028104</v>
+        <v>906903.9690695071</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4015,25 +4015,25 @@
         <v>-1</v>
       </c>
       <c r="D112" t="n">
-        <v>915392.6534320165</v>
+        <v>918520.8248716602</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>915392.6534320165</v>
+        <v>918520.8248716602</v>
       </c>
       <c r="G112" t="n">
-        <v>52.36708993339248</v>
+        <v>52.46423154264959</v>
       </c>
       <c r="H112" t="n">
-        <v>619.5216620149807</v>
+        <v>621.4225234374069</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>4517.242460142472</v>
+        <v>11595.48080273357</v>
       </c>
     </row>
     <row r="113">
@@ -4047,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>915392.6534320165</v>
+        <v>918520.8248716602</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>915392.6534320165</v>
+        <v>918520.8248716602</v>
       </c>
       <c r="G113" t="n">
-        <v>52.87211389443448</v>
+        <v>52.97019139656511</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4079,22 +4079,22 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>9266.05209121738</v>
+        <v>9285.067294026243</v>
       </c>
       <c r="E114" t="n">
-        <v>17158</v>
+        <v>17185</v>
       </c>
       <c r="F114" t="n">
-        <v>914779.3954260156</v>
+        <v>917905.7024905423</v>
       </c>
       <c r="G114" t="n">
-        <v>52.7749937833546</v>
+        <v>52.87289119560756</v>
       </c>
       <c r="H114" t="n">
-        <v>613.2580060008789</v>
+        <v>615.1223811179098</v>
       </c>
       <c r="I114" t="n">
-        <v>906126.6013407991</v>
+        <v>909235.757577634</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4111,22 +4111,22 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>80.46309063440771</v>
+        <v>82.51331293404967</v>
       </c>
       <c r="E115" t="n">
-        <v>17331</v>
+        <v>17358</v>
       </c>
       <c r="F115" t="n">
-        <v>915733.7850806976</v>
+        <v>918863.4985010021</v>
       </c>
       <c r="G115" t="n">
-        <v>52.83326536207161</v>
+        <v>52.93127003042217</v>
       </c>
       <c r="H115" t="n">
-        <v>45.43409294458304</v>
+        <v>45.44426582915783</v>
       </c>
       <c r="I115" t="n">
-        <v>915312.1903413821</v>
+        <v>918438.3115587261</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>80.46309063440771</v>
+        <v>82.51331293404967</v>
       </c>
       <c r="E116" t="n">
-        <v>17331</v>
+        <v>17358</v>
       </c>
       <c r="F116" t="n">
-        <v>924149.7364619152</v>
+        <v>927308.2378917581</v>
       </c>
       <c r="G116" t="n">
-        <v>53.3188663880492</v>
+        <v>53.41777420087706</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>915312.1903413821</v>
+        <v>918438.3115587261</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4175,25 +4175,25 @@
         <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>923861.7597845069</v>
+        <v>927019.4811517029</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>923861.7597845069</v>
+        <v>927019.4811517029</v>
       </c>
       <c r="G117" t="n">
-        <v>53.3382892059321</v>
+        <v>53.43723101234683</v>
       </c>
       <c r="H117" t="n">
-        <v>624.5935341368056</v>
+        <v>626.4880735473897</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>8469.106352490373</v>
+        <v>8498.65628004272</v>
       </c>
     </row>
     <row r="118">
@@ -4207,16 +4207,16 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>923861.7597845069</v>
+        <v>927019.4811517029</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>923861.7597845069</v>
+        <v>927019.4811517029</v>
       </c>
       <c r="G118" t="n">
-        <v>53.39656078685118</v>
+        <v>53.49561284208635</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>-1</v>
       </c>
       <c r="D119" t="n">
-        <v>923861.7597845069</v>
+        <v>927019.4811517029</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>923861.7597845069</v>
+        <v>927019.4811517029</v>
       </c>
       <c r="G119" t="n">
-        <v>53.64907236044015</v>
+        <v>53.74859304640484</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4271,22 +4271,22 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>9376.324061929821</v>
+        <v>9385.225025515738</v>
       </c>
       <c r="E120" t="n">
-        <v>17028</v>
+        <v>17055</v>
       </c>
       <c r="F120" t="n">
-        <v>923243.4894852529</v>
+        <v>926399.3226931024</v>
       </c>
       <c r="G120" t="n">
-        <v>53.66849691233985</v>
+        <v>53.76805028833694</v>
       </c>
       <c r="H120" t="n">
-        <v>618.2702992539939</v>
+        <v>620.158458600552</v>
       </c>
       <c r="I120" t="n">
-        <v>914485.435722577</v>
+        <v>917634.2561261872</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -4303,25 +4303,25 @@
         <v>-1</v>
       </c>
       <c r="D121" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="G121" t="n">
-        <v>54.7853789844206</v>
+        <v>54.88700140293584</v>
       </c>
       <c r="H121" t="n">
-        <v>629.6812600080285</v>
+        <v>631.6086853562424</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>17770.31636412896</v>
+        <v>17831.94411552732</v>
       </c>
     </row>
     <row r="122">
@@ -4335,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="G122" t="n">
-        <v>54.78537587877769</v>
+        <v>54.88700181623712</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4367,16 +4367,16 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="G123" t="n">
-        <v>54.15409688891946</v>
+        <v>54.25455319596956</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4396,19 +4396,19 @@
         <v>44281</v>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="G124" t="n">
-        <v>53.96956993465015</v>
+        <v>54.06968429026691</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>941632.0761486358</v>
+        <v>944851.4252672303</v>
       </c>
       <c r="G125" t="n">
-        <v>54.08611297842503</v>
+        <v>54.18644144266927</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4463,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>9527.258382034306</v>
+        <v>9553.493683473427</v>
       </c>
       <c r="E126" t="n">
-        <v>17219</v>
+        <v>17246</v>
       </c>
       <c r="F126" t="n">
-        <v>941003.2405593294</v>
+        <v>944220.6749584653</v>
       </c>
       <c r="G126" t="n">
-        <v>54.09582334498491</v>
+        <v>54.19617193986964</v>
       </c>
       <c r="H126" t="n">
-        <v>628.8355893063772</v>
+        <v>630.7503087649952</v>
       </c>
       <c r="I126" t="n">
-        <v>932104.8177666016</v>
+        <v>935297.9315837568</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -4495,25 +4495,25 @@
         <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="G127" t="n">
-        <v>53.93072116866217</v>
+        <v>54.0307643218637</v>
       </c>
       <c r="H127" t="n">
-        <v>627.1298526819164</v>
+        <v>629.0387368969169</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>-4098.859816089505</v>
+        <v>-4112.408825792372</v>
       </c>
     </row>
     <row r="128">
@@ -4527,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="G128" t="n">
-        <v>54.6299874086713</v>
+        <v>54.73132245846131</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4559,16 +4559,16 @@
         <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="G129" t="n">
-        <v>55.13501148587531</v>
+        <v>55.23728369108218</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4588,19 +4588,19 @@
         <v>44293</v>
       </c>
       <c r="C130" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>937533.2163325463</v>
+        <v>940739.0164414379</v>
       </c>
       <c r="G130" t="n">
-        <v>55.63032138151627</v>
+        <v>55.73351442578264</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4623,22 +4623,22 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>9510.805931277429</v>
+        <v>9531.65214068923</v>
       </c>
       <c r="E131" t="n">
-        <v>16515</v>
+        <v>16541</v>
       </c>
       <c r="F131" t="n">
-        <v>936906.8287188738</v>
+        <v>940110.7190013215</v>
       </c>
       <c r="G131" t="n">
-        <v>56.15476977218264</v>
+        <v>56.25893639203387</v>
       </c>
       <c r="H131" t="n">
-        <v>626.3876136725578</v>
+        <v>628.2974401163794</v>
       </c>
       <c r="I131" t="n">
-        <v>928022.4104012689</v>
+        <v>931207.3643007487</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -4655,22 +4655,22 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>9510.805931277429</v>
+        <v>9531.65214068923</v>
       </c>
       <c r="E132" t="n">
-        <v>16515</v>
+        <v>16541</v>
       </c>
       <c r="F132" t="n">
-        <v>936906.8326926045</v>
+        <v>940110.6677737212</v>
       </c>
       <c r="G132" t="n">
-        <v>56.15477001279607</v>
+        <v>56.25893329502642</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>928022.4104012689</v>
+        <v>931207.3643007487</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -4684,25 +4684,25 @@
         <v>44298</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>9510.805931277429</v>
+        <v>94.07490730258397</v>
       </c>
       <c r="E133" t="n">
-        <v>16515</v>
+        <v>16708</v>
       </c>
       <c r="F133" t="n">
-        <v>936586.0382272425</v>
+        <v>939743.1945099367</v>
       </c>
       <c r="G133" t="n">
-        <v>56.1353455825592</v>
+        <v>56.23947328241765</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>45.58519522289825</v>
       </c>
       <c r="I133" t="n">
-        <v>928022.4104012689</v>
+        <v>940644.9415341354</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -4719,25 +4719,25 @@
         <v>-1</v>
       </c>
       <c r="D134" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="G134" t="n">
-        <v>56.04793906728877</v>
+        <v>56.15190416973166</v>
       </c>
       <c r="H134" t="n">
-        <v>625.3290282177645</v>
+        <v>632.861608920726</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-3016.025733212708</v>
+        <v>-3091.78827517957</v>
       </c>
     </row>
     <row r="135">
@@ -4751,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="G135" t="n">
-        <v>56.38785761919802</v>
+        <v>56.49245581478164</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -4783,16 +4783,16 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="G136" t="n">
-        <v>56.61123472544558</v>
+        <v>56.71624763512581</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -4815,16 +4815,16 @@
         <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>934517.1905993336</v>
+        <v>937647.2281662584</v>
       </c>
       <c r="G137" t="n">
-        <v>56.96086501907023</v>
+        <v>57.06652767576037</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -4847,22 +4847,22 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>9461.157748964348</v>
+        <v>9495.67917347965</v>
       </c>
       <c r="E138" t="n">
-        <v>16136</v>
+        <v>16190</v>
       </c>
       <c r="F138" t="n">
-        <v>933892.5817449361</v>
+        <v>937020.763115893</v>
       </c>
       <c r="G138" t="n">
         <v>57.28999900817871</v>
       </c>
       <c r="H138" t="n">
-        <v>624.6088543975831</v>
+        <v>626.4650503654481</v>
       </c>
       <c r="I138" t="n">
-        <v>925056.0328503692</v>
+        <v>928151.5489927788</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -4879,25 +4879,25 @@
         <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="G139" t="n">
         <v>56.9900016784668</v>
       </c>
       <c r="H139" t="n">
-        <v>621.7044002502442</v>
+        <v>623.5508763046265</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>-6087.070166879217</v>
+        <v>-6106.972694705939</v>
       </c>
     </row>
     <row r="140">
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="G140" t="n">
         <v>56.84000015258789</v>
@@ -4943,13 +4943,13 @@
         <v>-1</v>
       </c>
       <c r="D141" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="G141" t="n">
         <v>56.63999938964844</v>
@@ -4975,13 +4975,13 @@
         <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>928430.1204324544</v>
+        <v>931540.2554715525</v>
       </c>
       <c r="G142" t="n">
         <v>56.55999946594238</v>
@@ -5007,22 +5007,22 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>9435.339818929386</v>
+        <v>9442.714364213012</v>
       </c>
       <c r="E143" t="n">
-        <v>16289</v>
+        <v>16344</v>
       </c>
       <c r="F143" t="n">
-        <v>927809.1461486566</v>
+        <v>930917.4206477824</v>
       </c>
       <c r="G143" t="n">
         <v>56.3799991607666</v>
       </c>
       <c r="H143" t="n">
-        <v>620.9742837978363</v>
+        <v>622.8348237701416</v>
       </c>
       <c r="I143" t="n">
-        <v>918994.780613525</v>
+        <v>922097.5411073394</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>9435.339818929386</v>
+        <v>9442.714364213012</v>
       </c>
       <c r="E144" t="n">
-        <v>16289</v>
+        <v>16344</v>
       </c>
       <c r="F144" t="n">
-        <v>923085.3523044336</v>
+        <v>926177.6768581095</v>
       </c>
       <c r="G144" t="n">
         <v>56.09000015258789</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>918994.780613525</v>
+        <v>922097.5411073394</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -5071,13 +5071,13 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>100.4560381882663</v>
+        <v>107.8305834718929</v>
       </c>
       <c r="E145" t="n">
-        <v>16455</v>
+        <v>16510</v>
       </c>
       <c r="F145" t="n">
-        <v>920922.2723586076</v>
+        <v>924007.4469584414</v>
       </c>
       <c r="G145" t="n">
         <v>55.96000099182129</v>
@@ -5086,7 +5086,7 @@
         <v>45.5236160987854</v>
       </c>
       <c r="I145" t="n">
-        <v>928329.6643942661</v>
+        <v>931432.4248880806</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>100.4560381882663</v>
+        <v>107.8305834718929</v>
       </c>
       <c r="E146" t="n">
-        <v>16455</v>
+        <v>16510</v>
       </c>
       <c r="F146" t="n">
-        <v>911542.8959948533</v>
+        <v>914596.7205065676</v>
       </c>
       <c r="G146" t="n">
         <v>55.38999938964844</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>928329.6643942661</v>
+        <v>931432.4248880806</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>100.4560381882663</v>
+        <v>107.8305834718929</v>
       </c>
       <c r="E147" t="n">
-        <v>16455</v>
+        <v>16510</v>
       </c>
       <c r="F147" t="n">
-        <v>902657.2123152727</v>
+        <v>905681.3368815371</v>
       </c>
       <c r="G147" t="n">
         <v>54.85000038146973</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>928329.6643942661</v>
+        <v>931432.4248880806</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -5167,13 +5167,13 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>32.4660381119724</v>
+        <v>39.84058339559891</v>
       </c>
       <c r="E148" t="n">
-        <v>16456</v>
+        <v>16511</v>
       </c>
       <c r="F148" t="n">
-        <v>903795.9872936051</v>
+        <v>906823.9618430849</v>
       </c>
       <c r="G148" t="n">
         <v>54.92000007629395</v>
@@ -5182,7 +5182,7 @@
         <v>13.07</v>
       </c>
       <c r="I148" t="n">
-        <v>928397.6543943423</v>
+        <v>931500.4148881568</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,13 +5199,13 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>32.4660381119724</v>
+        <v>39.84058339559891</v>
       </c>
       <c r="E149" t="n">
-        <v>16456</v>
+        <v>16511</v>
       </c>
       <c r="F149" t="n">
-        <v>890960.2959941666</v>
+        <v>893945.3705058809</v>
       </c>
       <c r="G149" t="n">
         <v>54.13999938964844</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>928397.6543943423</v>
+        <v>931500.4148881568</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>875718.7468381119</v>
+        <v>878653.1141333956</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>875718.7468381119</v>
+        <v>878653.1141333956</v>
       </c>
       <c r="G150" t="n">
         <v>53.25</v>
       </c>
       <c r="H150" t="n">
-        <v>595.7192</v>
+        <v>597.47645</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>-52711.37359434238</v>
+        <v>-52887.14133815677</v>
       </c>
     </row>
     <row r="151">
@@ -5263,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>8862.774358463306</v>
+        <v>8886.196090996769</v>
       </c>
       <c r="E151" t="n">
-        <v>16675</v>
+        <v>16731</v>
       </c>
       <c r="F151" t="n">
-        <v>875129.0370804787</v>
+        <v>878061.6588557367</v>
       </c>
       <c r="G151" t="n">
         <v>51.95000076293945</v>
       </c>
       <c r="H151" t="n">
-        <v>589.7097576332093</v>
+        <v>591.455277658844</v>
       </c>
       <c r="I151" t="n">
-        <v>866855.9724796485</v>
+        <v>869766.9180423989</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>8862.774358463306</v>
+        <v>8886.196090996769</v>
       </c>
       <c r="E152" t="n">
-        <v>16675</v>
+        <v>16731</v>
       </c>
       <c r="F152" t="n">
-        <v>868125.5040032387</v>
+        <v>871034.6056674127</v>
       </c>
       <c r="G152" t="n">
         <v>51.52999877929688</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>866855.9724796485</v>
+        <v>869766.9180423989</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -5327,25 +5327,25 @@
         <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="G153" t="n">
         <v>51.51999855041504</v>
       </c>
       <c r="H153" t="n">
-        <v>585.4075854969026</v>
+        <v>587.1386574481965</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>-8345.40423697466</v>
+        <v>-8372.960952853085</v>
       </c>
     </row>
     <row r="154">
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="G154" t="n">
         <v>50.72000122070312</v>
@@ -5391,13 +5391,13 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="G155" t="n">
         <v>50.88999938964844</v>
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="G156" t="n">
         <v>50.3799991607666</v>
@@ -5455,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>867373.3426011372</v>
+        <v>870280.1531805425</v>
       </c>
       <c r="G157" t="n">
         <v>50.75</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>8806.849531850889</v>
+        <v>8835.214032230904</v>
       </c>
       <c r="E158" t="n">
-        <v>16702</v>
+        <v>16758</v>
       </c>
       <c r="F158" t="n">
-        <v>866788.6035487271</v>
+        <v>869693.6880961042</v>
       </c>
       <c r="G158" t="n">
         <v>51.3700008392334</v>
       </c>
       <c r="H158" t="n">
-        <v>584.7390524101259</v>
+        <v>586.465084438324</v>
       </c>
       <c r="I158" t="n">
-        <v>858566.4930692863</v>
+        <v>861444.9391483116</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5519,25 +5519,25 @@
         <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>865035.4310743046</v>
+        <v>867934.8719587331</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>865035.4310743046</v>
+        <v>867934.8719587331</v>
       </c>
       <c r="G159" t="n">
         <v>51.30000114440918</v>
       </c>
       <c r="H159" t="n">
-        <v>584.0375714683533</v>
+        <v>585.7612515068055</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-2337.911526832613</v>
+        <v>-2345.281221809448</v>
       </c>
     </row>
     <row r="160">
@@ -5551,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>865035.4310743046</v>
+        <v>867934.8719587331</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>865035.4310743046</v>
+        <v>867934.8719587331</v>
       </c>
       <c r="G160" t="n">
         <v>51.04000091552734</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>865035.4310743046</v>
+        <v>867934.8719587331</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>865035.4310743046</v>
+        <v>867934.8719587331</v>
       </c>
       <c r="G161" t="n">
         <v>51.51000022888184</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>8776.782187369579</v>
+        <v>8768.079253173149</v>
       </c>
       <c r="E162" t="n">
-        <v>16487</v>
+        <v>16543</v>
       </c>
       <c r="F162" t="n">
-        <v>864452.0758980782</v>
+        <v>867349.7729425195</v>
       </c>
       <c r="G162" t="n">
         <v>51.89999961853027</v>
       </c>
       <c r="H162" t="n">
-        <v>583.3551762264252</v>
+        <v>585.0990162136079</v>
       </c>
       <c r="I162" t="n">
-        <v>856258.6488869351</v>
+        <v>859166.7927055599</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,25 +5647,25 @@
         <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="G163" t="n">
         <v>49.29500007629395</v>
       </c>
       <c r="H163" t="n">
-        <v>557.585999754715</v>
+        <v>559.2423117572785</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>-44089.56862883153</v>
+        <v>-44238.84875518642</v>
       </c>
     </row>
     <row r="164">
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="G164" t="n">
         <v>49.44499969482422</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="G165" t="n">
         <v>50.70999908447266</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="G166" t="n">
         <v>51.51000022888184</v>
@@ -5775,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="G167" t="n">
         <v>51.38000106811523</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>820945.8624454731</v>
+        <v>823696.0232035466</v>
       </c>
       <c r="G168" t="n">
         <v>51.76000022888184</v>
@@ -5839,22 +5839,22 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>8318.67044547309</v>
+        <v>8337.193203546647</v>
       </c>
       <c r="E169" t="n">
-        <v>15468</v>
+        <v>15520</v>
       </c>
       <c r="F169" t="n">
-        <v>820388.670445473</v>
+        <v>823137.1932035467</v>
       </c>
       <c r="G169" t="n">
         <v>52.5</v>
       </c>
       <c r="H169" t="n">
-        <v>557.192</v>
+        <v>558.83</v>
       </c>
       <c r="I169" t="n">
-        <v>812627.192</v>
+        <v>815358.83</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -5871,25 +5871,25 @@
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G170" t="n">
         <v>52.67000007629395</v>
       </c>
       <c r="H170" t="n">
-        <v>558.7697367080689</v>
+        <v>560.4130407104492</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1513.599443406682</v>
+        <v>1519.158143371576</v>
       </c>
     </row>
     <row r="171">
@@ -5903,13 +5903,13 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G171" t="n">
         <v>52.64999961853027</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G172" t="n">
         <v>52.96000099182129</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G173" t="n">
         <v>53.68000030517578</v>
@@ -5999,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G174" t="n">
         <v>53.79999923706055</v>
@@ -6031,13 +6031,13 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G175" t="n">
         <v>53.81999969482422</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G176" t="n">
         <v>53.81999969482422</v>
@@ -6095,13 +6095,13 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G177" t="n">
         <v>53.78999900817871</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>822459.4618888798</v>
+        <v>825215.1813469182</v>
       </c>
       <c r="G178" t="n">
         <v>53.71000099182129</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>8325.122349116129</v>
+        <v>8344.581089661144</v>
       </c>
       <c r="E179" t="n">
-        <v>15173</v>
+        <v>15224</v>
       </c>
       <c r="F179" t="n">
-        <v>821901.3661426037</v>
+        <v>824655.4448286748</v>
       </c>
       <c r="G179" t="n">
         <v>53.61999893188477</v>
       </c>
       <c r="H179" t="n">
-        <v>558.0957462760925</v>
+        <v>559.7365182434082</v>
       </c>
       <c r="I179" t="n">
-        <v>814134.3395397636</v>
+        <v>816870.6002572571</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>814216.2785173855</v>
+        <v>816944.7609457036</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>814216.2785173855</v>
+        <v>816944.7609457036</v>
       </c>
       <c r="G180" t="n">
         <v>53.15000152587891</v>
       </c>
       <c r="H180" t="n">
-        <v>553.8169838912964</v>
+        <v>555.4433739379883</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-8243.183371494291</v>
+        <v>-8270.420401214622</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>814216.2785173855</v>
+        <v>816944.7609457036</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>814216.2785173855</v>
+        <v>816944.7609457036</v>
       </c>
       <c r="G181" t="n">
         <v>53.95000076293945</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>8222.293135033795</v>
+        <v>8296.323877277087</v>
       </c>
       <c r="E182" t="n">
-        <v>14877</v>
+        <v>14926</v>
       </c>
       <c r="F182" t="n">
-        <v>813663.0640548336</v>
+        <v>816389.9547671697</v>
       </c>
       <c r="G182" t="n">
         <v>54.13999938964844</v>
       </c>
       <c r="H182" t="n">
-        <v>553.2144625518799</v>
+        <v>554.8061785339356</v>
       </c>
       <c r="I182" t="n">
-        <v>805993.9853823517</v>
+        <v>808648.4370684265</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>813555.9020153778</v>
+        <v>816282.6701633573</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>813555.9020153778</v>
+        <v>816282.6701633573</v>
       </c>
       <c r="G183" t="n">
         <v>54.17000007629395</v>
       </c>
       <c r="H183" t="n">
-        <v>553.4822546810151</v>
+        <v>555.0748526832581</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>-660.3765020077117</v>
+        <v>-662.0907823463203</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>8218.966956932791</v>
+        <v>8263.336582283902</v>
       </c>
       <c r="E184" t="n">
-        <v>14710</v>
+        <v>14759</v>
       </c>
       <c r="F184" t="n">
-        <v>813003.081546624</v>
+        <v>815728.2412205744</v>
       </c>
       <c r="G184" t="n">
         <v>54.71000099182129</v>
       </c>
       <c r="H184" t="n">
-        <v>552.8204687538148</v>
+        <v>554.4289427829742</v>
       </c>
       <c r="I184" t="n">
-        <v>805336.935058445</v>
+        <v>808019.3335810733</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G185" t="n">
         <v>55.07999992370605</v>
       </c>
       <c r="H185" t="n">
-        <v>556.0860793266296</v>
+        <v>557.7054313243866</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>4333.777739944519</v>
+        <v>4348.679861579905</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G186" t="n">
         <v>55.09000015258789</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G187" t="n">
         <v>55.18999862670898</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G188" t="n">
         <v>54.84999847412109</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G189" t="n">
         <v>54.35999870300293</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G190" t="n">
         <v>54.28999900817871</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G191" t="n">
         <v>54.97999954223633</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G192" t="n">
         <v>55.5099983215332</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G193" t="n">
         <v>56.30999946594238</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>817889.6797553223</v>
+        <v>820631.3500249372</v>
       </c>
       <c r="G194" t="n">
         <v>56.72999954223633</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>8301.954913369389</v>
+        <v>8313.187884662757</v>
       </c>
       <c r="E195" t="n">
-        <v>14231</v>
+        <v>14279</v>
       </c>
       <c r="F195" t="n">
-        <v>817334.3103420651</v>
+        <v>820074.343331669</v>
       </c>
       <c r="G195" t="n">
         <v>56.85000038146973</v>
       </c>
       <c r="H195" t="n">
-        <v>555.3694132572174</v>
+        <v>557.0066932682038</v>
       </c>
       <c r="I195" t="n">
-        <v>809587.7248419529</v>
+        <v>812318.1621402744</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>8301.954913369389</v>
+        <v>8313.187884662757</v>
       </c>
       <c r="E196" t="n">
-        <v>14231</v>
+        <v>14279</v>
       </c>
       <c r="F196" t="n">
-        <v>821745.9127418911</v>
+        <v>824500.8257058603</v>
       </c>
       <c r="G196" t="n">
         <v>57.15999984741211</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>809587.7248419529</v>
+        <v>812318.1621402744</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>8301.954913369389</v>
+        <v>8313.187884662757</v>
       </c>
       <c r="E197" t="n">
-        <v>14231</v>
+        <v>14279</v>
       </c>
       <c r="F197" t="n">
-        <v>834980.7470848477</v>
+        <v>837780.3000634653</v>
       </c>
       <c r="G197" t="n">
         <v>58.09000015258789</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>809587.7248419529</v>
+        <v>812318.1621402744</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>8301.954913369389</v>
+        <v>8313.187884662757</v>
       </c>
       <c r="E198" t="n">
-        <v>14231</v>
+        <v>14279</v>
       </c>
       <c r="F198" t="n">
-        <v>841242.3946850216</v>
+        <v>844063.067689274</v>
       </c>
       <c r="G198" t="n">
         <v>58.53000068664551</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>809587.7248419529</v>
+        <v>812318.1621402744</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -6799,25 +6799,25 @@
         <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>831854.7424171939</v>
+        <v>834643.9875731675</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>831854.7424171939</v>
+        <v>834643.9875731675</v>
       </c>
       <c r="G199" t="n">
         <v>57.90999984741211</v>
       </c>
       <c r="H199" t="n">
-        <v>564.4203246971131</v>
+        <v>566.0881326927185</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>13965.06266187166</v>
+        <v>14012.63754823036</v>
       </c>
     </row>
     <row r="200">
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>831854.7424171939</v>
+        <v>834643.9875731675</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>831854.7424171939</v>
+        <v>834643.9875731675</v>
       </c>
       <c r="G200" t="n">
         <v>57.81999969482422</v>
@@ -6863,13 +6863,13 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>831854.7424171939</v>
+        <v>834643.9875731675</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>831854.7424171939</v>
+        <v>834643.9875731675</v>
       </c>
       <c r="G201" t="n">
         <v>58.29999923706055</v>
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>8445.084817193949</v>
+        <v>8448.659573167542</v>
       </c>
       <c r="E202" t="n">
-        <v>14187</v>
+        <v>14235</v>
       </c>
       <c r="F202" t="n">
-        <v>831291.0848171939</v>
+        <v>834078.6595731676</v>
       </c>
       <c r="G202" t="n">
         <v>58</v>
       </c>
       <c r="H202" t="n">
-        <v>563.6576</v>
+        <v>565.3280000000001</v>
       </c>
       <c r="I202" t="n">
-        <v>823409.6576</v>
+        <v>826195.328</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,13 +6927,13 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>91.84978261104777</v>
+        <v>95.42453858464148</v>
       </c>
       <c r="E203" t="n">
-        <v>14330</v>
+        <v>14378</v>
       </c>
       <c r="F203" t="n">
-        <v>832664.8552490722</v>
+        <v>835457.2300233564</v>
       </c>
       <c r="G203" t="n">
         <v>58.10000038146973</v>
@@ -6942,7 +6942,7 @@
         <v>44.9349800327301</v>
       </c>
       <c r="I203" t="n">
-        <v>831762.8926345829</v>
+        <v>834548.5630345829</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>91.84978261104777</v>
+        <v>95.42453858464148</v>
       </c>
       <c r="E204" t="n">
-        <v>14330</v>
+        <v>14378</v>
       </c>
       <c r="F204" t="n">
-        <v>832664.8552490722</v>
+        <v>835457.2300233564</v>
       </c>
       <c r="G204" t="n">
         <v>58.10000038146973</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>831762.8926345829</v>
+        <v>834548.5630345829</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="G205" t="n">
         <v>58.78999900817871</v>
       </c>
       <c r="H205" t="n">
-        <v>575.4264114723205</v>
+        <v>577.1195634437561</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>10122.36674114561</v>
+        <v>10156.92314156692</v>
       </c>
     </row>
     <row r="206">
@@ -7023,13 +7023,13 @@
         <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="G206" t="n">
         <v>58.38000106811523</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="G207" t="n">
         <v>56.47999954223633</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="G208" t="n">
         <v>56.15999984741211</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="G209" t="n">
         <v>56.11999893188477</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="G210" t="n">
         <v>56.11000061035156</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>841977.1091583396</v>
+        <v>844800.9107147345</v>
       </c>
       <c r="G211" t="n">
         <v>56.07999992370605</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>8541.309452551903</v>
+        <v>8568.964293280986</v>
       </c>
       <c r="E212" t="n">
-        <v>14604</v>
+        <v>14653</v>
       </c>
       <c r="F212" t="n">
-        <v>841407.4394803229</v>
+        <v>844229.5643546976</v>
       </c>
       <c r="G212" t="n">
         <v>57.03000068664551</v>
       </c>
       <c r="H212" t="n">
-        <v>569.6696780166626</v>
+        <v>571.34636003685</v>
       </c>
       <c r="I212" t="n">
-        <v>833435.7997057877</v>
+        <v>836231.9464214535</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,22 +7247,22 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>86.71363682390589</v>
+        <v>56.73391717129022</v>
       </c>
       <c r="E213" t="n">
-        <v>14750</v>
+        <v>14800</v>
       </c>
       <c r="F213" t="n">
-        <v>849686.7192635024</v>
+        <v>852536.7395629232</v>
       </c>
       <c r="G213" t="n">
         <v>57.60000038146973</v>
       </c>
       <c r="H213" t="n">
-        <v>44.99576003341675</v>
+        <v>45.03032003364563</v>
       </c>
       <c r="I213" t="n">
-        <v>841890.3955215156</v>
+        <v>844744.1767975632</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>853529.3430135215</v>
+        <v>856392.6262748068</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>853529.3430135215</v>
+        <v>856392.6262748068</v>
       </c>
       <c r="G214" t="n">
         <v>57.89999961853027</v>
       </c>
       <c r="H214" t="n">
-        <v>582.364996623993</v>
+        <v>584.1019966125489</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>11552.23385518196</v>
+        <v>11591.71556007233</v>
       </c>
     </row>
     <row r="215">
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>853529.3430135215</v>
+        <v>856392.6262748068</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>853529.3430135215</v>
+        <v>856392.6262748068</v>
       </c>
       <c r="G215" t="n">
         <v>58.36000061035156</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>853529.3430135215</v>
+        <v>856392.6262748068</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>853529.3430135215</v>
+        <v>856392.6262748068</v>
       </c>
       <c r="G216" t="n">
         <v>58.6200008392334</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>8648.938602790391</v>
+        <v>8696.773567768299</v>
       </c>
       <c r="E217" t="n">
-        <v>14403</v>
+        <v>14451</v>
       </c>
       <c r="F217" t="n">
-        <v>852952.810690269</v>
+        <v>855814.4056955301</v>
       </c>
       <c r="G217" t="n">
         <v>58.6200008392334</v>
       </c>
       <c r="H217" t="n">
-        <v>576.5323232524872</v>
+        <v>578.2205792766571</v>
       </c>
       <c r="I217" t="n">
-        <v>844880.4044107312</v>
+        <v>847695.8527070385</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>8648.938602790391</v>
+        <v>8696.773567768299</v>
       </c>
       <c r="E218" t="n">
-        <v>14403</v>
+        <v>14451</v>
       </c>
       <c r="F218" t="n">
-        <v>847767.7218993754</v>
+        <v>850612.0368753397</v>
       </c>
       <c r="G218" t="n">
         <v>58.26000022888184</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>844880.4044107312</v>
+        <v>847695.8527070385</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="G219" t="n">
         <v>58.19000053405762</v>
       </c>
       <c r="H219" t="n">
-        <v>572.8163466152191</v>
+        <v>574.4922186306001</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>-7342.643065314507</v>
+        <v>-7366.647208002512</v>
       </c>
     </row>
     <row r="220">
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="G220" t="n">
         <v>58.3799991607666</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="G221" t="n">
         <v>58.98000144958496</v>
@@ -7532,16 +7532,16 @@
         <v>44424</v>
       </c>
       <c r="C222" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="G222" t="n">
         <v>59.18000030517578</v>
@@ -7567,13 +7567,13 @@
         <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="G223" t="n">
         <v>59.43000030517578</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="G224" t="n">
         <v>60</v>
@@ -7628,16 +7628,16 @@
         <v>44427</v>
       </c>
       <c r="C225" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>846186.699948207</v>
+        <v>849025.9790668043</v>
       </c>
       <c r="G225" t="n">
         <v>59.67000007629395</v>
@@ -7663,22 +7663,22 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>8548.272328588784</v>
+        <v>8618.531038209314</v>
       </c>
       <c r="E226" t="n">
-        <v>13914</v>
+        <v>13960</v>
       </c>
       <c r="F226" t="n">
-        <v>845614.5102054809</v>
+        <v>848452.1289080824</v>
       </c>
       <c r="G226" t="n">
         <v>60.15999984741211</v>
       </c>
       <c r="H226" t="n">
-        <v>572.1897427261353</v>
+        <v>573.8501587219239</v>
       </c>
       <c r="I226" t="n">
-        <v>837638.4276196182</v>
+        <v>840407.448028595</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>106.0840727141504</v>
+        <v>56.31080725075679</v>
       </c>
       <c r="E227" t="n">
-        <v>14054</v>
+        <v>14102</v>
       </c>
       <c r="F227" t="n">
-        <v>843064.9976393036</v>
+        <v>845894.2643518675</v>
       </c>
       <c r="G227" t="n">
         <v>59.97999954223633</v>
       </c>
       <c r="H227" t="n">
-        <v>44.98831996154786</v>
+        <v>45.06029596099854</v>
       </c>
       <c r="I227" t="n">
-        <v>846080.6158754929</v>
+        <v>848969.6682595535</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,22 +7727,22 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>34.28407126456539</v>
+        <v>56.31080725075679</v>
       </c>
       <c r="E228" t="n">
-        <v>14055</v>
+        <v>14102</v>
       </c>
       <c r="F228" t="n">
-        <v>825484.4544451812</v>
+        <v>828266.7912492979</v>
       </c>
       <c r="G228" t="n">
         <v>58.73000144958496</v>
       </c>
       <c r="H228" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>846152.4158769425</v>
+        <v>848969.6682595535</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>34.28407126456539</v>
+        <v>56.31080725075679</v>
       </c>
       <c r="E229" t="n">
-        <v>14055</v>
+        <v>14102</v>
       </c>
       <c r="F229" t="n">
-        <v>816910.8690589049</v>
+        <v>819664.5357446898</v>
       </c>
       <c r="G229" t="n">
         <v>58.11999893188477</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>846152.4158769425</v>
+        <v>848969.6682595535</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>34.28407126456539</v>
+        <v>56.31080725075679</v>
       </c>
       <c r="E230" t="n">
-        <v>14055</v>
+        <v>14102</v>
       </c>
       <c r="F230" t="n">
-        <v>810305.0287097075</v>
+        <v>813036.6054277647</v>
       </c>
       <c r="G230" t="n">
         <v>57.64999961853027</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>846152.4158769425</v>
+        <v>848969.6682595535</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>34.28407126456539</v>
+        <v>56.31080725075679</v>
       </c>
       <c r="E231" t="n">
-        <v>14055</v>
+        <v>14102</v>
       </c>
       <c r="F231" t="n">
-        <v>814240.4383605102</v>
+        <v>816985.1751108397</v>
       </c>
       <c r="G231" t="n">
         <v>57.93000030517578</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>846152.4158769425</v>
+        <v>848969.6682595535</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>818879.1794545844</v>
+        <v>821639.662094734</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>818879.1794545844</v>
+        <v>821639.662094734</v>
       </c>
       <c r="G232" t="n">
         <v>58.29999923706055</v>
       </c>
       <c r="H232" t="n">
-        <v>561.5938935661316</v>
+        <v>563.2379535446167</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>-27307.52049362264</v>
+        <v>-27386.31697207026</v>
       </c>
     </row>
     <row r="233">
@@ -7887,22 +7887,22 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>8313.57332525431</v>
+        <v>8301.353271782138</v>
       </c>
       <c r="E233" t="n">
-        <v>14031</v>
+        <v>14079</v>
       </c>
       <c r="F233" t="n">
-        <v>818323.2236643808</v>
+        <v>821082.0436804888</v>
       </c>
       <c r="G233" t="n">
         <v>57.73000144958496</v>
       </c>
       <c r="H233" t="n">
-        <v>555.955790203476</v>
+        <v>557.618414245224</v>
       </c>
       <c r="I233" t="n">
-        <v>810565.6061293301</v>
+        <v>813338.3088229519</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G234" t="n">
         <v>56.86999893188477</v>
       </c>
       <c r="H234" t="n">
-        <v>548.7157730079651</v>
+        <v>550.3536289772035</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>-13171.36688906292</v>
+        <v>-13215.94748992345</v>
       </c>
     </row>
     <row r="235">
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G235" t="n">
         <v>55.71999931335449</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G236" t="n">
         <v>54.97999954223633</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G237" t="n">
         <v>54.28999900817871</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G238" t="n">
         <v>53.73999977111816</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G239" t="n">
         <v>53.21000099182129</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G240" t="n">
         <v>53.19000053405762</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>805707.8125655215</v>
+        <v>808423.7146048106</v>
       </c>
       <c r="G241" t="n">
         <v>52.97999954223633</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>8136.559509118865</v>
+        <v>8207.875717872103</v>
       </c>
       <c r="E242" t="n">
-        <v>15078</v>
+        <v>15128</v>
       </c>
       <c r="F242" t="n">
-        <v>805159.6487119998</v>
+        <v>807873.9649512705</v>
       </c>
       <c r="G242" t="n">
         <v>52.86000061035156</v>
       </c>
       <c r="H242" t="n">
-        <v>548.1638535217286</v>
+        <v>549.749653540039</v>
       </c>
       <c r="I242" t="n">
-        <v>797571.2530564026</v>
+        <v>800215.8388869385</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8204,28 +8204,28 @@
         <v>44453</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>8136.559509118865</v>
+        <v>811708.716867518</v>
       </c>
       <c r="E243" t="n">
-        <v>15078</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>809532.2825163211</v>
+        <v>811708.716867518</v>
       </c>
       <c r="G243" t="n">
         <v>53.15000152587891</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>552.3819338500977</v>
       </c>
       <c r="I243" t="n">
-        <v>797571.2530564026</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>3285.00226270745</v>
       </c>
     </row>
     <row r="244">
@@ -8239,25 +8239,25 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="G244" t="n">
         <v>53.14999961853027</v>
       </c>
       <c r="H244" t="n">
-        <v>550.7874165489197</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>3273.653775247978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="G245" t="n">
         <v>53.0099983215332</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="G246" t="n">
         <v>53.19000053405762</v>
@@ -8335,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>808981.4663407694</v>
+        <v>811708.716867518</v>
       </c>
       <c r="G247" t="n">
         <v>52.40999984741211</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>8213.09113472428</v>
+        <v>8240.822940939508</v>
       </c>
       <c r="E248" t="n">
-        <v>15127</v>
+        <v>15178</v>
       </c>
       <c r="F248" t="n">
-        <v>808431.3853642318</v>
+        <v>811157.0171509919</v>
       </c>
       <c r="G248" t="n">
         <v>52.89999961853027</v>
       </c>
       <c r="H248" t="n">
-        <v>550.0809765377045</v>
+        <v>551.6997165260316</v>
       </c>
       <c r="I248" t="n">
-        <v>800768.3752060451</v>
+        <v>803467.8939265786</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>822696.891626409</v>
+        <v>825470.8547590653</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>822696.891626409</v>
+        <v>825470.8547590653</v>
       </c>
       <c r="G249" t="n">
         <v>53.88000106811523</v>
       </c>
       <c r="H249" t="n">
-        <v>558.9756656944274</v>
+        <v>560.6243937271119</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>13715.42528563959</v>
+        <v>13762.13789154729</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>822696.891626409</v>
+        <v>825470.8547590653</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>822696.891626409</v>
+        <v>825470.8547590653</v>
       </c>
       <c r="G250" t="n">
         <v>54.17000007629395</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>822696.891626409</v>
+        <v>825470.8547590653</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>822696.891626409</v>
+        <v>825470.8547590653</v>
       </c>
       <c r="G251" t="n">
         <v>53.92000007629395</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>8306.529002759044</v>
+        <v>8358.8701301934</v>
       </c>
       <c r="E252" t="n">
-        <v>14661</v>
+        <v>14710</v>
       </c>
       <c r="F252" t="n">
-        <v>822138.6423583956</v>
+        <v>824910.9734970452</v>
       </c>
       <c r="G252" t="n">
         <v>55.51000022888184</v>
       </c>
       <c r="H252" t="n">
-        <v>558.249268013382</v>
+        <v>559.8812620201111</v>
       </c>
       <c r="I252" t="n">
-        <v>814390.36262365</v>
+        <v>817111.9846288719</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>797550.7884573775</v>
+        <v>800241.1758479096</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>797550.7884573775</v>
+        <v>800241.1758479096</v>
       </c>
       <c r="G253" t="n">
         <v>53.8700008392334</v>
       </c>
       <c r="H253" t="n">
-        <v>543.8228493824006</v>
+        <v>545.406627407074</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-25146.10316903156</v>
+        <v>-25229.67891115567</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>797550.7884573775</v>
+        <v>800241.1758479096</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>797550.7884573775</v>
+        <v>800241.1758479096</v>
       </c>
       <c r="G254" t="n">
         <v>53.43000030517578</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>8088.475629321129</v>
+        <v>8089.550360920052</v>
       </c>
       <c r="E255" t="n">
-        <v>14970</v>
+        <v>15021</v>
       </c>
       <c r="F255" t="n">
-        <v>797007.4870505248</v>
+        <v>799696.2618210335</v>
       </c>
       <c r="G255" t="n">
         <v>52.70000076293945</v>
       </c>
       <c r="H255" t="n">
-        <v>543.3014068527222</v>
+        <v>544.9140268760682</v>
       </c>
       <c r="I255" t="n">
-        <v>789462.3128280563</v>
+        <v>792151.6254869896</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
